--- a/doc/Plannification.xlsx
+++ b/doc/Plannification.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
+    <sheet name="GANTT Tâches" sheetId="2" r:id="rId2"/>
+    <sheet name="GANTT Ressources" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,16 +26,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>DTO = Debut au plus tôt, DTA = Debut au plus tard, F = Fin, ML = Marge Libre, MT = Marge Totale</t>
+  </si>
+  <si>
+    <t>Tâches critiques</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#25 (Formation AngularJS)</t>
+  </si>
+  <si>
+    <t>#26 (Intégr. AngularJS)</t>
+  </si>
+  <si>
+    <t>#4 (Intégration Google Maps)</t>
+  </si>
+  <si>
+    <t>#13 (Intégr. Back/Front)</t>
+  </si>
+  <si>
+    <t>#14 (Finalisation &amp; détails)</t>
+  </si>
+  <si>
+    <t>#16 (Tests)</t>
+  </si>
+  <si>
+    <t>Jours</t>
+  </si>
+  <si>
+    <t>#5 Choix SGDB</t>
+  </si>
+  <si>
+    <t>#6 Schéma BD</t>
+  </si>
+  <si>
+    <t>#7 Dériv. Relationelle</t>
+  </si>
+  <si>
+    <t>#9 Specs API REST</t>
+  </si>
+  <si>
+    <t>#8 Choix framework</t>
+  </si>
+  <si>
+    <t>#15 Authentification</t>
+  </si>
+  <si>
+    <t>#17 Profil utilisateur</t>
+  </si>
+  <si>
+    <t>#18 Recherche de trajet</t>
+  </si>
+  <si>
+    <t>#19 Gestion de trajet</t>
+  </si>
+  <si>
+    <t>#27 Intégration jQuery</t>
+  </si>
+  <si>
+    <t>#20 Comment. Trajets</t>
+  </si>
+  <si>
+    <t>#21 Notifications</t>
+  </si>
+  <si>
+    <t>#1 Etude story/découpe</t>
+  </si>
+  <si>
+    <t>#5 Choix SGBD</t>
+  </si>
+  <si>
+    <t>#22 Struct. Générale</t>
+  </si>
+  <si>
+    <t>#23 Carte &amp; détails</t>
+  </si>
+  <si>
+    <t>#24 Validation</t>
+  </si>
+  <si>
+    <t>#25 Formation AngularJS</t>
+  </si>
+  <si>
+    <t>#18 Rech. de trajet</t>
+  </si>
+  <si>
+    <t>#19 Gest des trajets</t>
+  </si>
+  <si>
+    <t>#20 Comm. Trajets</t>
+  </si>
+  <si>
+    <t>#26 Intégr. AngularJS</t>
+  </si>
+  <si>
+    <t>#27 Intégr. jQuery</t>
+  </si>
+  <si>
+    <t>#4 Intégr. Google Maps</t>
+  </si>
+  <si>
+    <t>#13 Intégr. B-E/F-E</t>
+  </si>
+  <si>
+    <t>#14 Final. &amp; détails</t>
+  </si>
+  <si>
+    <t>#16 Tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +168,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -66,18 +233,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
+    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4493,7 +4742,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>ML:  	MT:  </a:t>
+            <a:t>ML:  0	MT:  14</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4639,7 +4888,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>ML:  	MT:  </a:t>
+            <a:t>ML:  0	MT:  12</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4785,7 +5034,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>ML:  	MT:  </a:t>
+            <a:t>ML:  2	MT:  14</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4931,7 +5180,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>ML:  	MT:  </a:t>
+            <a:t>ML:  0	MT:  12</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5089,7 +5338,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>ML:  	MT:  </a:t>
+            <a:t>ML:  0	MT:  12</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5464,7 +5713,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>ML:  	MT:  </a:t>
+            <a:t>ML:  12	MT: 12 </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7034,9 +7283,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7250,15 +7496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7267,16 +7513,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14211300" y="12887325"/>
-          <a:ext cx="409575" cy="523875"/>
+          <a:off x="14209059" y="12887326"/>
+          <a:ext cx="411816" cy="615762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8552,8 +8795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8590,4 +8833,1513 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:DN16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="118" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>27</v>
+      </c>
+      <c r="AC2">
+        <v>28</v>
+      </c>
+      <c r="AD2">
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <v>30</v>
+      </c>
+      <c r="AF2">
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <v>33</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
+      </c>
+      <c r="AJ2">
+        <v>35</v>
+      </c>
+      <c r="AK2">
+        <v>36</v>
+      </c>
+      <c r="AL2">
+        <v>37</v>
+      </c>
+      <c r="AM2">
+        <v>38</v>
+      </c>
+      <c r="AN2">
+        <v>39</v>
+      </c>
+      <c r="AO2">
+        <v>40</v>
+      </c>
+      <c r="AP2">
+        <v>41</v>
+      </c>
+      <c r="AQ2">
+        <v>42</v>
+      </c>
+      <c r="AR2">
+        <v>43</v>
+      </c>
+      <c r="AS2">
+        <v>44</v>
+      </c>
+      <c r="AT2">
+        <v>45</v>
+      </c>
+      <c r="AU2">
+        <v>46</v>
+      </c>
+      <c r="AV2">
+        <v>47</v>
+      </c>
+      <c r="AW2">
+        <v>48</v>
+      </c>
+      <c r="AX2">
+        <v>49</v>
+      </c>
+      <c r="AY2">
+        <v>50</v>
+      </c>
+      <c r="AZ2">
+        <v>51</v>
+      </c>
+      <c r="BA2">
+        <v>52</v>
+      </c>
+      <c r="BB2">
+        <v>53</v>
+      </c>
+      <c r="BC2">
+        <v>54</v>
+      </c>
+      <c r="BD2">
+        <v>55</v>
+      </c>
+      <c r="BE2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="8"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+    </row>
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+    </row>
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>21</v>
+      </c>
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>27</v>
+      </c>
+      <c r="AC16">
+        <v>28</v>
+      </c>
+      <c r="AD16">
+        <v>29</v>
+      </c>
+      <c r="AE16">
+        <v>30</v>
+      </c>
+      <c r="AF16">
+        <v>31</v>
+      </c>
+      <c r="AG16">
+        <v>32</v>
+      </c>
+      <c r="AH16">
+        <v>33</v>
+      </c>
+      <c r="AI16">
+        <v>34</v>
+      </c>
+      <c r="AJ16">
+        <v>35</v>
+      </c>
+      <c r="AK16">
+        <v>36</v>
+      </c>
+      <c r="AL16">
+        <v>37</v>
+      </c>
+      <c r="AM16">
+        <v>38</v>
+      </c>
+      <c r="AN16">
+        <v>39</v>
+      </c>
+      <c r="AO16">
+        <v>40</v>
+      </c>
+      <c r="AP16">
+        <v>41</v>
+      </c>
+      <c r="AQ16">
+        <v>42</v>
+      </c>
+      <c r="AR16">
+        <v>43</v>
+      </c>
+      <c r="AS16">
+        <v>44</v>
+      </c>
+      <c r="AT16">
+        <v>45</v>
+      </c>
+      <c r="AU16">
+        <v>46</v>
+      </c>
+      <c r="AV16">
+        <v>47</v>
+      </c>
+      <c r="AW16">
+        <v>48</v>
+      </c>
+      <c r="AX16">
+        <v>49</v>
+      </c>
+      <c r="AY16">
+        <v>50</v>
+      </c>
+      <c r="AZ16">
+        <v>51</v>
+      </c>
+      <c r="BA16">
+        <v>52</v>
+      </c>
+      <c r="BB16">
+        <v>53</v>
+      </c>
+      <c r="BC16">
+        <v>54</v>
+      </c>
+      <c r="BD16">
+        <v>55</v>
+      </c>
+      <c r="BE16">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:BF27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="58" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>21</v>
+      </c>
+      <c r="X3">
+        <v>22</v>
+      </c>
+      <c r="Y3">
+        <v>23</v>
+      </c>
+      <c r="Z3">
+        <v>24</v>
+      </c>
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>26</v>
+      </c>
+      <c r="AC3">
+        <v>27</v>
+      </c>
+      <c r="AD3">
+        <v>28</v>
+      </c>
+      <c r="AE3">
+        <v>29</v>
+      </c>
+      <c r="AF3">
+        <v>30</v>
+      </c>
+      <c r="AG3">
+        <v>31</v>
+      </c>
+      <c r="AH3">
+        <v>32</v>
+      </c>
+      <c r="AI3">
+        <v>33</v>
+      </c>
+      <c r="AJ3">
+        <v>34</v>
+      </c>
+      <c r="AK3">
+        <v>35</v>
+      </c>
+      <c r="AL3">
+        <v>36</v>
+      </c>
+      <c r="AM3">
+        <v>37</v>
+      </c>
+      <c r="AN3">
+        <v>38</v>
+      </c>
+      <c r="AO3">
+        <v>39</v>
+      </c>
+      <c r="AP3">
+        <v>40</v>
+      </c>
+      <c r="AQ3">
+        <v>41</v>
+      </c>
+      <c r="AR3">
+        <v>42</v>
+      </c>
+      <c r="AS3">
+        <v>43</v>
+      </c>
+      <c r="AT3">
+        <v>44</v>
+      </c>
+      <c r="AU3">
+        <v>45</v>
+      </c>
+      <c r="AV3">
+        <v>46</v>
+      </c>
+      <c r="AW3">
+        <v>47</v>
+      </c>
+      <c r="AX3">
+        <v>48</v>
+      </c>
+      <c r="AY3">
+        <v>49</v>
+      </c>
+      <c r="AZ3">
+        <v>50</v>
+      </c>
+      <c r="BA3">
+        <v>51</v>
+      </c>
+      <c r="BB3">
+        <v>52</v>
+      </c>
+      <c r="BC3">
+        <v>53</v>
+      </c>
+      <c r="BD3">
+        <v>54</v>
+      </c>
+      <c r="BE3">
+        <v>55</v>
+      </c>
+      <c r="BF3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="AZ4">
+        <v>6</v>
+      </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>6</v>
+      </c>
+      <c r="BC4">
+        <v>6</v>
+      </c>
+      <c r="BD4">
+        <v>6</v>
+      </c>
+      <c r="BE4">
+        <v>6</v>
+      </c>
+      <c r="BF4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="AR5">
+        <v>6</v>
+      </c>
+      <c r="AS5">
+        <v>6</v>
+      </c>
+      <c r="AT5">
+        <v>6</v>
+      </c>
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>6</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="AK6">
+        <v>3</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <v>3</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+      <c r="R27">
+        <v>16</v>
+      </c>
+      <c r="S27">
+        <v>17</v>
+      </c>
+      <c r="T27">
+        <v>18</v>
+      </c>
+      <c r="U27">
+        <v>19</v>
+      </c>
+      <c r="V27">
+        <v>20</v>
+      </c>
+      <c r="W27">
+        <v>21</v>
+      </c>
+      <c r="X27">
+        <v>22</v>
+      </c>
+      <c r="Y27">
+        <v>23</v>
+      </c>
+      <c r="Z27">
+        <v>24</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>26</v>
+      </c>
+      <c r="AC27">
+        <v>27</v>
+      </c>
+      <c r="AD27">
+        <v>28</v>
+      </c>
+      <c r="AE27">
+        <v>29</v>
+      </c>
+      <c r="AF27">
+        <v>30</v>
+      </c>
+      <c r="AG27">
+        <v>31</v>
+      </c>
+      <c r="AH27">
+        <v>32</v>
+      </c>
+      <c r="AI27">
+        <v>33</v>
+      </c>
+      <c r="AJ27">
+        <v>34</v>
+      </c>
+      <c r="AK27">
+        <v>35</v>
+      </c>
+      <c r="AL27">
+        <v>36</v>
+      </c>
+      <c r="AM27">
+        <v>37</v>
+      </c>
+      <c r="AN27">
+        <v>38</v>
+      </c>
+      <c r="AO27">
+        <v>39</v>
+      </c>
+      <c r="AP27">
+        <v>40</v>
+      </c>
+      <c r="AQ27">
+        <v>41</v>
+      </c>
+      <c r="AR27">
+        <v>42</v>
+      </c>
+      <c r="AS27">
+        <v>43</v>
+      </c>
+      <c r="AT27">
+        <v>44</v>
+      </c>
+      <c r="AU27">
+        <v>45</v>
+      </c>
+      <c r="AV27">
+        <v>46</v>
+      </c>
+      <c r="AW27">
+        <v>47</v>
+      </c>
+      <c r="AX27">
+        <v>48</v>
+      </c>
+      <c r="AY27">
+        <v>49</v>
+      </c>
+      <c r="AZ27">
+        <v>50</v>
+      </c>
+      <c r="BA27">
+        <v>51</v>
+      </c>
+      <c r="BB27">
+        <v>52</v>
+      </c>
+      <c r="BC27">
+        <v>53</v>
+      </c>
+      <c r="BD27">
+        <v>54</v>
+      </c>
+      <c r="BE27">
+        <v>55</v>
+      </c>
+      <c r="BF27">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Plannification.xlsx
+++ b/doc/Plannification.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
-    <sheet name="GANTT Tâches" sheetId="2" r:id="rId2"/>
-    <sheet name="GANTT Ressources" sheetId="3" r:id="rId3"/>
+    <sheet name="Tâches" sheetId="4" r:id="rId2"/>
+    <sheet name="GANTT Tâches" sheetId="2" r:id="rId3"/>
+    <sheet name="GANTT Ressources" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>DTO = Debut au plus tôt, DTA = Debut au plus tard, F = Fin, ML = Marge Libre, MT = Marge Totale</t>
   </si>
@@ -146,6 +147,150 @@
   </si>
   <si>
     <t>#16 Tests</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Duree</t>
+  </si>
+  <si>
+    <t>Nb Pers</t>
+  </si>
+  <si>
+    <t>Sous equipe</t>
+  </si>
+  <si>
+    <t>Etude storyboard &amp; découpe</t>
+  </si>
+  <si>
+    <t>Front end</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Choix SGBD</t>
+  </si>
+  <si>
+    <t>Back end</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Schéma BD</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Dérivation relationelle</t>
+  </si>
+  <si>
+    <t>Structure générale</t>
+  </si>
+  <si>
+    <t>Carte &amp; détails</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>Specs API REST</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>Choix framework</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>Authentification</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>Profil utilisateur</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>Formation AngularJS</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>Rech. de trajet</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>Commentaires trajets</t>
+  </si>
+  <si>
+    <t>Gestion des trajets</t>
+  </si>
+  <si>
+    <t>Intégrétation AngularJS</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>Intégration jQuery</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Intégration Google Maps</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>Intégration back end/front end</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>Finalisation &amp; détails</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>Tests</t>
   </si>
 </sst>
 </file>
@@ -8796,7 +8941,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8836,6 +8981,419 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DN16"/>
   <sheetViews>
@@ -9547,12 +10105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BF27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10087,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -10113,6 +10671,9 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
@@ -10122,10 +10683,7 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" t="s">

--- a/doc/Plannification.xlsx
+++ b/doc/Plannification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\amudrive\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKNZ\Desktop\Development\IUT\amudrive\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>DTO = Debut au plus tôt, DTA = Debut au plus tard, F = Fin, ML = Marge Libre, MT = Marge Totale</t>
   </si>
@@ -292,6 +292,21 @@
   <si>
     <t>Tests</t>
   </si>
+  <si>
+    <t>Marge libre</t>
+  </si>
+  <si>
+    <t>Marge totale</t>
+  </si>
+  <si>
+    <t>Durée tâche</t>
+  </si>
+  <si>
+    <t>A la verticale au dessus des tâches se trouvent le nombre de personnes mobilisées sur une journée</t>
+  </si>
+  <si>
+    <t>A droit du nom d'une tâche se trouve le nombre de personnes assignées à cette tâche</t>
+  </si>
 </sst>
 </file>
 
@@ -8940,7 +8955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
@@ -9395,10 +9410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:DN16"/>
+  <dimension ref="A2:DN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10100,6 +10115,24 @@
         <v>56</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10107,10 +10140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BF27"/>
+  <dimension ref="A3:BF32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10897,6 +10930,16 @@
         <v>56</v>
       </c>
     </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Plannification.xlsx
+++ b/doc/Plannification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKNZ\Desktop\Development\IUT\amudrive\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\amudrive\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>DTO = Debut au plus tôt, DTA = Debut au plus tard, F = Fin, ML = Marge Libre, MT = Marge Totale</t>
   </si>
@@ -307,6 +307,21 @@
   <si>
     <t>A droit du nom d'une tâche se trouve le nombre de personnes assignées à cette tâche</t>
   </si>
+  <si>
+    <t>Tâche parente</t>
+  </si>
+  <si>
+    <t>#5, #6</t>
+  </si>
+  <si>
+    <t>#18, #19</t>
+  </si>
+  <si>
+    <t>#21, #4</t>
+  </si>
+  <si>
+    <t>#26, #27</t>
+  </si>
 </sst>
 </file>
 
@@ -8955,8 +8970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,21 +9012,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -9027,8 +9044,11 @@
       <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9045,7 +9065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -9062,7 +9082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -9079,7 +9099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -9095,8 +9115,11 @@
       <c r="E5" t="s">
         <v>49</v>
       </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9112,8 +9135,11 @@
       <c r="E6" t="s">
         <v>46</v>
       </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -9129,8 +9155,11 @@
       <c r="E7" t="s">
         <v>46</v>
       </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -9146,8 +9175,11 @@
       <c r="E8" t="s">
         <v>49</v>
       </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9163,8 +9195,11 @@
       <c r="E9" t="s">
         <v>46</v>
       </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -9180,8 +9215,11 @@
       <c r="E10" t="s">
         <v>49</v>
       </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -9197,8 +9235,11 @@
       <c r="E11" t="s">
         <v>49</v>
       </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -9214,8 +9255,11 @@
       <c r="E12" t="s">
         <v>49</v>
       </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -9231,8 +9275,11 @@
       <c r="E13" t="s">
         <v>46</v>
       </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -9248,8 +9295,11 @@
       <c r="E14" t="s">
         <v>49</v>
       </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -9265,8 +9315,11 @@
       <c r="E15" t="s">
         <v>49</v>
       </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -9282,8 +9335,11 @@
       <c r="E16" t="s">
         <v>46</v>
       </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -9299,8 +9355,11 @@
       <c r="E17" t="s">
         <v>49</v>
       </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -9316,8 +9375,11 @@
       <c r="E18" t="s">
         <v>46</v>
       </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -9333,8 +9395,11 @@
       <c r="E19" t="s">
         <v>49</v>
       </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -9350,8 +9415,11 @@
       <c r="E20" t="s">
         <v>46</v>
       </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -9367,8 +9435,11 @@
       <c r="E21" t="s">
         <v>83</v>
       </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -9384,8 +9455,11 @@
       <c r="E22" t="s">
         <v>83</v>
       </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9400,6 +9474,9 @@
       </c>
       <c r="E23" t="s">
         <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -10142,7 +10219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
